--- a/resources/GIL1/Students.xlsx
+++ b/resources/GIL1/Students.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GestionScolarite-XML\resources\GIL1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8BCB5CF-2BEB-4A5B-8DB4-03D99E780C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FECFD7-5629-4C04-A02B-D26BC244071E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{41130A59-9452-463D-BE7F-1AE92312EF90}"/>
   </bookViews>
@@ -505,7 +505,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -515,10 +515,10 @@
         <v>25</v>
       </c>
       <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
         <v>26</v>
-      </c>
-      <c r="C1" t="s">
-        <v>27</v>
       </c>
       <c r="D1" t="s">
         <v>28</v>
@@ -538,10 +538,10 @@
         <v>19000011</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>671280987</v>
       </c>
       <c r="G2" s="1" t="str">
-        <f>CONCATENATE(B2,".",C2,"@etu.uae.ac.ma")</f>
+        <f>CONCATENATE(C2,".",B2,"@etu.uae.ac.ma")</f>
         <v>GIL1_FN1.GIL1_LN1@etu.uae.ac.ma</v>
       </c>
     </row>
@@ -563,10 +563,10 @@
         <v>19000012</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D3" s="2">
         <v>37226</v>
@@ -578,20 +578,20 @@
         <v>689866409</v>
       </c>
       <c r="G3" s="1" t="str">
-        <f t="shared" ref="G3:G11" si="0">CONCATENATE(B3,".",C3,"@etu.uae.ac.ma")</f>
+        <f>CONCATENATE(C3,".",B3,"@etu.uae.ac.ma")</f>
         <v>GIL1_FN2.GIL1_LN2@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A11" si="1">A3+1</f>
+        <f t="shared" ref="A4:A11" si="0">A3+1</f>
         <v>19000013</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="D4" s="2">
         <v>37054</v>
@@ -603,20 +603,20 @@
         <v>692381200</v>
       </c>
       <c r="G4" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C4,".",B4,"@etu.uae.ac.ma")</f>
         <v>GIL1_FN3.GIL1_LN3@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>19000014</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="D5" s="2">
         <v>37078</v>
@@ -628,20 +628,20 @@
         <v>678904198</v>
       </c>
       <c r="G5" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C5,".",B5,"@etu.uae.ac.ma")</f>
         <v>GIL1_FN4.GIL1_LN4@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>19000015</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>1</v>
@@ -653,20 +653,20 @@
         <v>678970346</v>
       </c>
       <c r="G6" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C6,".",B6,"@etu.uae.ac.ma")</f>
         <v>GIL1_FN5.GIL1_LN5@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>19000016</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="D7" s="2">
         <v>37108</v>
@@ -678,20 +678,20 @@
         <v>789108865</v>
       </c>
       <c r="G7" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C7,".",B7,"@etu.uae.ac.ma")</f>
         <v>GIL1_FN6.GIL1_LN6@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>19000017</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>2</v>
@@ -703,20 +703,20 @@
         <v>604447429</v>
       </c>
       <c r="G8" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C8,".",B8,"@etu.uae.ac.ma")</f>
         <v>GIL1_FN7.GIL1_LN7@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>19000018</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="D9" s="2">
         <v>36897</v>
@@ -728,20 +728,20 @@
         <v>633234012</v>
       </c>
       <c r="G9" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C9,".",B9,"@etu.uae.ac.ma")</f>
         <v>GIL1_FN8.GIL1_LN8@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>19000019</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>3</v>
@@ -753,20 +753,20 @@
         <v>723080012</v>
       </c>
       <c r="G10" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C10,".",B10,"@etu.uae.ac.ma")</f>
         <v>GIL1_FN9.GIL1_LN9@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>19000020</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="D11" s="2">
         <v>36681</v>
@@ -778,7 +778,7 @@
         <v>767480234</v>
       </c>
       <c r="G11" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C11,".",B11,"@etu.uae.ac.ma")</f>
         <v>GIL1_FN10.GIL1_LN10@etu.uae.ac.ma</v>
       </c>
     </row>

--- a/resources/GIL1/Students.xlsx
+++ b/resources/GIL1/Students.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GestionScolarite-XML\resources\GIL1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FECFD7-5629-4C04-A02B-D26BC244071E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58FD65D-040B-418C-A51F-9C951B65A0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{41130A59-9452-463D-BE7F-1AE92312EF90}"/>
   </bookViews>
@@ -32,83 +32,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
-  <si>
-    <t>15/06/2000</t>
-  </si>
-  <si>
-    <t>28/09/2001</t>
-  </si>
-  <si>
-    <t>19/04/2000</t>
-  </si>
-  <si>
-    <t>21/6/2002</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="158">
   <si>
     <t>GIL1</t>
   </si>
   <si>
-    <t>GIL1_FN1</t>
-  </si>
-  <si>
-    <t>GIL1_FN2</t>
-  </si>
-  <si>
-    <t>GIL1_FN3</t>
-  </si>
-  <si>
-    <t>GIL1_FN4</t>
-  </si>
-  <si>
-    <t>GIL1_FN5</t>
-  </si>
-  <si>
-    <t>GIL1_FN6</t>
-  </si>
-  <si>
-    <t>GIL1_FN7</t>
-  </si>
-  <si>
-    <t>GIL1_FN8</t>
-  </si>
-  <si>
-    <t>GIL1_FN9</t>
-  </si>
-  <si>
-    <t>GIL1_FN10</t>
-  </si>
-  <si>
-    <t>GIL1_LN1</t>
-  </si>
-  <si>
-    <t>GIL1_LN2</t>
-  </si>
-  <si>
-    <t>GIL1_LN3</t>
-  </si>
-  <si>
-    <t>GIL1_LN4</t>
-  </si>
-  <si>
-    <t>GIL1_LN5</t>
-  </si>
-  <si>
-    <t>GIL1_LN6</t>
-  </si>
-  <si>
-    <t>GIL1_LN7</t>
-  </si>
-  <si>
-    <t>GIL1_LN8</t>
-  </si>
-  <si>
-    <t>GIL1_LN9</t>
-  </si>
-  <si>
-    <t>GIL1_LN10</t>
-  </si>
-  <si>
     <t>CNE</t>
   </si>
   <si>
@@ -128,13 +56,466 @@
   </si>
   <si>
     <t>Email</t>
+  </si>
+  <si>
+    <t>Otto Dillard</t>
+  </si>
+  <si>
+    <t>Sylvester Fuentes</t>
+  </si>
+  <si>
+    <t>Axel Dotson</t>
+  </si>
+  <si>
+    <t>Tyler Dillon</t>
+  </si>
+  <si>
+    <t>Darrel Whitehead</t>
+  </si>
+  <si>
+    <t>Ivor Fitzgerald</t>
+  </si>
+  <si>
+    <t>Amela Mcfarland</t>
+  </si>
+  <si>
+    <t>Raja Hunter</t>
+  </si>
+  <si>
+    <t>Nyssa York</t>
+  </si>
+  <si>
+    <t>Desiree Warner</t>
+  </si>
+  <si>
+    <t>Montana Holloway</t>
+  </si>
+  <si>
+    <t>Ross Jensen</t>
+  </si>
+  <si>
+    <t>Angelica Edwards</t>
+  </si>
+  <si>
+    <t>Sasha Daugherty</t>
+  </si>
+  <si>
+    <t>Maxwell Preston</t>
+  </si>
+  <si>
+    <t>Wade Allen</t>
+  </si>
+  <si>
+    <t>Vivian Cash</t>
+  </si>
+  <si>
+    <t>Meredith Sharpe</t>
+  </si>
+  <si>
+    <t>Lewis Gilliam</t>
+  </si>
+  <si>
+    <t>Savannah Patrick</t>
+  </si>
+  <si>
+    <t>Hayley Bradley</t>
+  </si>
+  <si>
+    <t>Yasir Mccarty</t>
+  </si>
+  <si>
+    <t>Shana Copeland</t>
+  </si>
+  <si>
+    <t>Jada Jackson</t>
+  </si>
+  <si>
+    <t>Amela Blake</t>
+  </si>
+  <si>
+    <t>Griffith Hancock</t>
+  </si>
+  <si>
+    <t>Kadeem Bishop</t>
+  </si>
+  <si>
+    <t>Henry Hines</t>
+  </si>
+  <si>
+    <t>Chadwick Davidson</t>
+  </si>
+  <si>
+    <t>Shad Moore</t>
+  </si>
+  <si>
+    <t>Evangeline Berg</t>
+  </si>
+  <si>
+    <t>Oliver Mcdaniel</t>
+  </si>
+  <si>
+    <t>Deborah Mullen</t>
+  </si>
+  <si>
+    <t>Aretha Jacobs</t>
+  </si>
+  <si>
+    <t>Quintessa Morton</t>
+  </si>
+  <si>
+    <t>Hope Pickett</t>
+  </si>
+  <si>
+    <t>Valentine Morrow</t>
+  </si>
+  <si>
+    <t>Quyn Cotton</t>
+  </si>
+  <si>
+    <t>Dexter Dominguez</t>
+  </si>
+  <si>
+    <t>Jorden Terrell</t>
+  </si>
+  <si>
+    <t>Ivana Palmer</t>
+  </si>
+  <si>
+    <t>Abra Heath</t>
+  </si>
+  <si>
+    <t>Kaseem Serrano</t>
+  </si>
+  <si>
+    <t>Hayden Powers</t>
+  </si>
+  <si>
+    <t>Linus Floyd</t>
+  </si>
+  <si>
+    <t>Vanna Alexander</t>
+  </si>
+  <si>
+    <t>Marvin Dillard</t>
+  </si>
+  <si>
+    <t>Hop Cochran</t>
+  </si>
+  <si>
+    <t>Amethyst Ratliff</t>
+  </si>
+  <si>
+    <t>Zachery Le</t>
+  </si>
+  <si>
+    <t>Jenna Albert</t>
+  </si>
+  <si>
+    <t>Evangeline Perry</t>
+  </si>
+  <si>
+    <t>Chester Giles</t>
+  </si>
+  <si>
+    <t>Rhea Montoya</t>
+  </si>
+  <si>
+    <t>Yen Whitfield</t>
+  </si>
+  <si>
+    <t>Aquila Vance</t>
+  </si>
+  <si>
+    <t>Emma Valdez</t>
+  </si>
+  <si>
+    <t>Sierra Edwards</t>
+  </si>
+  <si>
+    <t>Robert Merritt</t>
+  </si>
+  <si>
+    <t>Thaddeus Holman</t>
+  </si>
+  <si>
+    <t>Hunter Carter</t>
+  </si>
+  <si>
+    <t>Raphael Burnett</t>
+  </si>
+  <si>
+    <t>Uma Valdez</t>
+  </si>
+  <si>
+    <t>Lars Davis</t>
+  </si>
+  <si>
+    <t>Velma Ayers</t>
+  </si>
+  <si>
+    <t>Acton Peterson</t>
+  </si>
+  <si>
+    <t>Adena Frank</t>
+  </si>
+  <si>
+    <t>Beau Stone</t>
+  </si>
+  <si>
+    <t>Joelle Whitley</t>
+  </si>
+  <si>
+    <t>Dale Short</t>
+  </si>
+  <si>
+    <t>Darrel Whitney</t>
+  </si>
+  <si>
+    <t>Zachery Herrera</t>
+  </si>
+  <si>
+    <t>Charles Hoffman</t>
+  </si>
+  <si>
+    <t>Gretchen Hull</t>
+  </si>
+  <si>
+    <t>Theodore Bird</t>
+  </si>
+  <si>
+    <t>Ira Vargas</t>
+  </si>
+  <si>
+    <t>Alfreda Contreras</t>
+  </si>
+  <si>
+    <t>Hilary Hoover</t>
+  </si>
+  <si>
+    <t>Beau Mckenzie</t>
+  </si>
+  <si>
+    <t>Oprah Glass</t>
+  </si>
+  <si>
+    <t>Lani Lawrence</t>
+  </si>
+  <si>
+    <t>Sylvester Quinn</t>
+  </si>
+  <si>
+    <t>Micah Hammond</t>
+  </si>
+  <si>
+    <t>Raphael Ward</t>
+  </si>
+  <si>
+    <t>Oren William</t>
+  </si>
+  <si>
+    <t>Buffy Cash</t>
+  </si>
+  <si>
+    <t>Travis Brooks</t>
+  </si>
+  <si>
+    <t>Randall Cobb</t>
+  </si>
+  <si>
+    <t>Clark Galloway</t>
+  </si>
+  <si>
+    <t>Linda Larson</t>
+  </si>
+  <si>
+    <t>Sasha Ray</t>
+  </si>
+  <si>
+    <t>Driscoll Bowers</t>
+  </si>
+  <si>
+    <t>Rudyard Nicholson</t>
+  </si>
+  <si>
+    <t>Madaline Willis</t>
+  </si>
+  <si>
+    <t>Cain Mccormick</t>
+  </si>
+  <si>
+    <t>Hall Fitzpatrick</t>
+  </si>
+  <si>
+    <t>Mannix Martin</t>
+  </si>
+  <si>
+    <t>Rhonda Middleton</t>
+  </si>
+  <si>
+    <t>Bianca Rosa</t>
+  </si>
+  <si>
+    <t>Castor Lambert</t>
+  </si>
+  <si>
+    <t>02 85 76 68 47</t>
+  </si>
+  <si>
+    <t>01 85 18 61 67</t>
+  </si>
+  <si>
+    <t>06 67 19 41 18</t>
+  </si>
+  <si>
+    <t>04 85 30 44 90</t>
+  </si>
+  <si>
+    <t>02 02 26 74 22</t>
+  </si>
+  <si>
+    <t>07 87 55 79 29</t>
+  </si>
+  <si>
+    <t>08 37 44 85 86</t>
+  </si>
+  <si>
+    <t>01 83 38 18 68</t>
+  </si>
+  <si>
+    <t>08 31 13 65 72</t>
+  </si>
+  <si>
+    <t>08 18 64 11 79</t>
+  </si>
+  <si>
+    <t>02 84 33 34 66</t>
+  </si>
+  <si>
+    <t>05 71 41 11 84</t>
+  </si>
+  <si>
+    <t>02 14 25 15 54</t>
+  </si>
+  <si>
+    <t>02 89 26 82 83</t>
+  </si>
+  <si>
+    <t>08 58 76 88 94</t>
+  </si>
+  <si>
+    <t>08 33 81 28 74</t>
+  </si>
+  <si>
+    <t>06 16 63 31 18</t>
+  </si>
+  <si>
+    <t>07 74 52 95 97</t>
+  </si>
+  <si>
+    <t>01 24 20 78 66</t>
+  </si>
+  <si>
+    <t>03 61 41 58 11</t>
+  </si>
+  <si>
+    <t>02 23 82 52 52</t>
+  </si>
+  <si>
+    <t>06 45 17 97 06</t>
+  </si>
+  <si>
+    <t>09 88 86 44 14</t>
+  </si>
+  <si>
+    <t>03 67 63 11 51</t>
+  </si>
+  <si>
+    <t>03 66 72 91 42</t>
+  </si>
+  <si>
+    <t>05 25 79 20 23</t>
+  </si>
+  <si>
+    <t>07 78 31 68 73</t>
+  </si>
+  <si>
+    <t>07 55 33 70 27</t>
+  </si>
+  <si>
+    <t>04 74 77 36 84</t>
+  </si>
+  <si>
+    <t>07 16 53 98 39</t>
+  </si>
+  <si>
+    <t>06 30 11 04 81</t>
+  </si>
+  <si>
+    <t>03 71 87 00 60</t>
+  </si>
+  <si>
+    <t>01 56 73 76 97</t>
+  </si>
+  <si>
+    <t>01 84 85 44 08</t>
+  </si>
+  <si>
+    <t>05 65 75 13 40</t>
+  </si>
+  <si>
+    <t>05 93 58 74 38</t>
+  </si>
+  <si>
+    <t>08 58 46 48 26</t>
+  </si>
+  <si>
+    <t>06 25 87 28 26</t>
+  </si>
+  <si>
+    <t>08 21 99 89 95</t>
+  </si>
+  <si>
+    <t>05 52 77 10 53</t>
+  </si>
+  <si>
+    <t>05 44 22 75 86</t>
+  </si>
+  <si>
+    <t>05 38 86 88 53</t>
+  </si>
+  <si>
+    <t>02 78 68 35 35</t>
+  </si>
+  <si>
+    <t>03 76 66 24 37</t>
+  </si>
+  <si>
+    <t>03 34 09 32 82</t>
+  </si>
+  <si>
+    <t>06 55 33 32 49</t>
+  </si>
+  <si>
+    <t>03 26 99 58 62</t>
+  </si>
+  <si>
+    <t>05 81 86 42 78</t>
+  </si>
+  <si>
+    <t>01 82 98 92 66</t>
+  </si>
+  <si>
+    <t>04 61 71 56 86</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,6 +525,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -187,7 +575,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,284 +890,1284 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3255FD85-B3CD-42E1-B8AD-124F4CCBFEF7}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>19000011</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>0</v>
+        <v>19000051</v>
+      </c>
+      <c r="B2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="2">
+        <v>37244</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1">
-        <v>671280987</v>
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>157</v>
       </c>
       <c r="G2" s="1" t="str">
-        <f>CONCATENATE(C2,".",B2,"@etu.uae.ac.ma")</f>
-        <v>GIL1_FN1.GIL1_LN1@etu.uae.ac.ma</v>
+        <f>CONCATENATE(SUBSTITUTE(B2," ",""),".",SUBSTITUTE(C2," ",""),"@etu.uae.ac.ma")</f>
+        <v>CastorLambert.BiancaRosa@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <f>A2+1</f>
-        <v>19000012</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>19000052</v>
+      </c>
+      <c r="B3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" t="s">
+        <v>104</v>
       </c>
       <c r="D3" s="2">
-        <v>37226</v>
+        <v>36727</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1">
-        <v>689866409</v>
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>156</v>
       </c>
       <c r="G3" s="1" t="str">
-        <f>CONCATENATE(C3,".",B3,"@etu.uae.ac.ma")</f>
-        <v>GIL1_FN2.GIL1_LN2@etu.uae.ac.ma</v>
+        <f t="shared" ref="G3:G51" si="0">CONCATENATE(SUBSTITUTE(B3," ",""),".",SUBSTITUTE(C3," ",""),"@etu.uae.ac.ma")</f>
+        <v>RhondaMiddleton.MannixMartin@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A11" si="0">A3+1</f>
-        <v>19000013</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
+        <f t="shared" ref="A4:A51" si="1">A3+1</f>
+        <v>19000053</v>
+      </c>
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" t="s">
+        <v>102</v>
       </c>
       <c r="D4" s="2">
-        <v>37054</v>
+        <v>36172</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1">
-        <v>692381200</v>
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>155</v>
       </c>
       <c r="G4" s="1" t="str">
-        <f>CONCATENATE(C4,".",B4,"@etu.uae.ac.ma")</f>
-        <v>GIL1_FN3.GIL1_LN3@etu.uae.ac.ma</v>
+        <f t="shared" si="0"/>
+        <v>HallFitzpatrick.CainMccormick@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <f t="shared" si="0"/>
-        <v>19000014</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>19000054</v>
+      </c>
+      <c r="B5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" t="s">
+        <v>100</v>
       </c>
       <c r="D5" s="2">
-        <v>37078</v>
+        <v>36025</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1">
-        <v>678904198</v>
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>154</v>
       </c>
       <c r="G5" s="1" t="str">
-        <f>CONCATENATE(C5,".",B5,"@etu.uae.ac.ma")</f>
-        <v>GIL1_FN4.GIL1_LN4@etu.uae.ac.ma</v>
+        <f t="shared" si="0"/>
+        <v>MadalineWillis.RudyardNicholson@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <f t="shared" si="0"/>
-        <v>19000015</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>19000055</v>
+      </c>
+      <c r="B6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="2">
+        <v>36485</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="1">
-        <v>678970346</v>
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>153</v>
       </c>
       <c r="G6" s="1" t="str">
-        <f>CONCATENATE(C6,".",B6,"@etu.uae.ac.ma")</f>
-        <v>GIL1_FN5.GIL1_LN5@etu.uae.ac.ma</v>
+        <f t="shared" si="0"/>
+        <v>DriscollBowers.SashaRay@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <f t="shared" si="0"/>
-        <v>19000016</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>19000056</v>
+      </c>
+      <c r="B7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
       </c>
       <c r="D7" s="2">
-        <v>37108</v>
+        <v>35725</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1">
-        <v>789108865</v>
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>152</v>
       </c>
       <c r="G7" s="1" t="str">
-        <f>CONCATENATE(C7,".",B7,"@etu.uae.ac.ma")</f>
-        <v>GIL1_FN6.GIL1_LN6@etu.uae.ac.ma</v>
+        <f t="shared" si="0"/>
+        <v>LindaLarson.ClarkGalloway@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <f t="shared" si="0"/>
-        <v>19000017</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>19000057</v>
+      </c>
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="2">
+        <v>36068</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="1">
-        <v>604447429</v>
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>151</v>
       </c>
       <c r="G8" s="1" t="str">
-        <f>CONCATENATE(C8,".",B8,"@etu.uae.ac.ma")</f>
-        <v>GIL1_FN7.GIL1_LN7@etu.uae.ac.ma</v>
+        <f t="shared" si="0"/>
+        <v>RandallCobb.TravisBrooks@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <f t="shared" si="0"/>
-        <v>19000018</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
+        <f t="shared" si="1"/>
+        <v>19000058</v>
+      </c>
+      <c r="B9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" t="s">
+        <v>92</v>
       </c>
       <c r="D9" s="2">
-        <v>36897</v>
+        <v>36283</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="1">
-        <v>633234012</v>
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>150</v>
       </c>
       <c r="G9" s="1" t="str">
-        <f>CONCATENATE(C9,".",B9,"@etu.uae.ac.ma")</f>
-        <v>GIL1_FN8.GIL1_LN8@etu.uae.ac.ma</v>
+        <f t="shared" si="0"/>
+        <v>BuffyCash.OrenWilliam@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <f t="shared" si="0"/>
-        <v>19000019</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>19000059</v>
+      </c>
+      <c r="B10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="2">
+        <v>35512</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="1">
-        <v>723080012</v>
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>149</v>
       </c>
       <c r="G10" s="1" t="str">
-        <f>CONCATENATE(C10,".",B10,"@etu.uae.ac.ma")</f>
-        <v>GIL1_FN9.GIL1_LN9@etu.uae.ac.ma</v>
+        <f t="shared" si="0"/>
+        <v>RaphaelWard.MicahHammond@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <f t="shared" si="0"/>
-        <v>19000020</v>
-      </c>
-      <c r="B11" s="1" t="s">
+        <f t="shared" si="1"/>
+        <v>19000060</v>
+      </c>
+      <c r="B11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="2">
+        <v>36084</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>SylvesterQuinn.LaniLawrence@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <f t="shared" si="1"/>
+        <v>19000061</v>
+      </c>
+      <c r="B12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="2">
+        <v>37262</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OprahGlass.BeauMckenzie@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <f t="shared" si="1"/>
+        <v>19000062</v>
+      </c>
+      <c r="B13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="2">
+        <v>36499</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>HilaryHoover.AlfredaContreras@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <f t="shared" si="1"/>
+        <v>19000063</v>
+      </c>
+      <c r="B14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="2">
+        <v>37011</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>IraVargas.TheodoreBird@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <f t="shared" si="1"/>
+        <v>19000064</v>
+      </c>
+      <c r="B15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="2">
+        <v>37052</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>144</v>
+      </c>
+      <c r="G15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>GretchenHull.CharlesHoffman@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <f t="shared" si="1"/>
+        <v>19000065</v>
+      </c>
+      <c r="B16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="2">
+        <v>35757</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>ZacheryHerrera.DarrelWhitney@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <f t="shared" si="1"/>
+        <v>19000066</v>
+      </c>
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="2">
+        <v>35957</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>142</v>
+      </c>
+      <c r="G17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DaleShort.JoelleWhitley@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <f t="shared" si="1"/>
+        <v>19000067</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="2">
+        <v>35820</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>141</v>
+      </c>
+      <c r="G18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>BeauStone.AdenaFrank@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <f t="shared" si="1"/>
+        <v>19000068</v>
+      </c>
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="2">
+        <v>36400</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>140</v>
+      </c>
+      <c r="G19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>ActonPeterson.VelmaAyers@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <f t="shared" si="1"/>
+        <v>19000069</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="2">
+        <v>37526</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>139</v>
+      </c>
+      <c r="G20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>LarsDavis.UmaValdez@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <f t="shared" si="1"/>
+        <v>19000070</v>
+      </c>
+      <c r="B21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="2">
+        <v>37518</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>138</v>
+      </c>
+      <c r="G21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>RaphaelBurnett.HunterCarter@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <f t="shared" si="1"/>
+        <v>19000071</v>
+      </c>
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="2">
+        <v>37559</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>137</v>
+      </c>
+      <c r="G22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>ThaddeusHolman.RobertMerritt@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <f t="shared" si="1"/>
+        <v>19000072</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="2">
+        <v>36432</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>136</v>
+      </c>
+      <c r="G23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>SierraEdwards.EmmaValdez@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <f t="shared" si="1"/>
+        <v>19000073</v>
+      </c>
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="2">
+        <v>36226</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>135</v>
+      </c>
+      <c r="G24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AquilaVance.YenWhitfield@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <f t="shared" si="1"/>
+        <v>19000074</v>
+      </c>
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="2">
+        <v>37519</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>134</v>
+      </c>
+      <c r="G25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>RheaMontoya.ChesterGiles@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <f t="shared" si="1"/>
+        <v>19000075</v>
+      </c>
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="2">
+        <v>36885</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>133</v>
+      </c>
+      <c r="G26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>EvangelinePerry.JennaAlbert@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <f t="shared" si="1"/>
+        <v>19000076</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="2">
+        <v>37064</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>132</v>
+      </c>
+      <c r="G27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>ZacheryLe.AmethystRatliff@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <f t="shared" si="1"/>
+        <v>19000077</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="2">
+        <v>37620</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>131</v>
+      </c>
+      <c r="G28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>HopCochran.MarvinDillard@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <f t="shared" si="1"/>
+        <v>19000078</v>
+      </c>
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="2">
+        <v>35808</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>VannaAlexander.LinusFloyd@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <f t="shared" si="1"/>
+        <v>19000079</v>
+      </c>
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="2">
+        <v>37124</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>129</v>
+      </c>
+      <c r="G30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>HaydenPowers.KaseemSerrano@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <f t="shared" si="1"/>
+        <v>19000080</v>
+      </c>
+      <c r="B31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="2">
+        <v>37173</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>128</v>
+      </c>
+      <c r="G31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AbraHeath.IvanaPalmer@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <f t="shared" si="1"/>
+        <v>19000081</v>
+      </c>
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="2">
+        <v>37514</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>127</v>
+      </c>
+      <c r="G32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>JordenTerrell.DexterDominguez@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <f t="shared" si="1"/>
+        <v>19000082</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="2">
+        <v>36910</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>126</v>
+      </c>
+      <c r="G33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>QuynCotton.ValentineMorrow@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <f t="shared" si="1"/>
+        <v>19000083</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="2">
+        <v>35455</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>HopePickett.QuintessaMorton@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <f t="shared" si="1"/>
+        <v>19000084</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="2">
+        <v>35796</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>124</v>
+      </c>
+      <c r="G35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>ArethaJacobs.DeborahMullen@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <f t="shared" si="1"/>
+        <v>19000085</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="2">
+        <v>35544</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F36" t="s">
+        <v>123</v>
+      </c>
+      <c r="G36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OliverMcdaniel.EvangelineBerg@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <f t="shared" si="1"/>
+        <v>19000086</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="2">
+        <v>36033</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>122</v>
+      </c>
+      <c r="G37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>ShadMoore.ChadwickDavidson@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <f t="shared" si="1"/>
+        <v>19000087</v>
+      </c>
+      <c r="B38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="2">
+        <v>37083</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>121</v>
+      </c>
+      <c r="G38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>HenryHines.KadeemBishop@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <f t="shared" si="1"/>
+        <v>19000088</v>
+      </c>
+      <c r="B39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="2">
+        <v>35963</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>120</v>
+      </c>
+      <c r="G39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>GriffithHancock.AmelaBlake@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <f t="shared" si="1"/>
+        <v>19000089</v>
+      </c>
+      <c r="B40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="2">
+        <v>37116</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>119</v>
+      </c>
+      <c r="G40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>JadaJackson.ShanaCopeland@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <f t="shared" si="1"/>
+        <v>19000090</v>
+      </c>
+      <c r="B41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="2">
+        <v>36235</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
+        <v>118</v>
+      </c>
+      <c r="G41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>YasirMccarty.HayleyBradley@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <f t="shared" si="1"/>
+        <v>19000091</v>
+      </c>
+      <c r="B42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="2">
+        <v>35751</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F42" t="s">
+        <v>117</v>
+      </c>
+      <c r="G42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>SavannahPatrick.LewisGilliam@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <f t="shared" si="1"/>
+        <v>19000092</v>
+      </c>
+      <c r="B43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D43" s="2">
+        <v>37314</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>116</v>
+      </c>
+      <c r="G43" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MeredithSharpe.VivianCash@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <f t="shared" si="1"/>
+        <v>19000093</v>
+      </c>
+      <c r="B44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="2">
+        <v>36622</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F44" t="s">
+        <v>115</v>
+      </c>
+      <c r="G44" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>WadeAllen.MaxwellPreston@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <f t="shared" si="1"/>
+        <v>19000094</v>
+      </c>
+      <c r="B45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="2">
+        <v>36943</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F45" t="s">
+        <v>114</v>
+      </c>
+      <c r="G45" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>SashaDaugherty.AngelicaEdwards@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <f t="shared" si="1"/>
+        <v>19000095</v>
+      </c>
+      <c r="B46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="2">
+        <v>36414</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F46" t="s">
+        <v>113</v>
+      </c>
+      <c r="G46" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>RossJensen.MontanaHolloway@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <f t="shared" si="1"/>
+        <v>19000096</v>
+      </c>
+      <c r="B47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="2">
+        <v>36992</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F47" t="s">
+        <v>112</v>
+      </c>
+      <c r="G47" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DesireeWarner.NyssaYork@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <f t="shared" si="1"/>
+        <v>19000097</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="2">
-        <v>36681</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="1">
-        <v>767480234</v>
-      </c>
-      <c r="G11" s="1" t="str">
-        <f>CONCATENATE(C11,".",B11,"@etu.uae.ac.ma")</f>
-        <v>GIL1_FN10.GIL1_LN10@etu.uae.ac.ma</v>
+      <c r="D48" s="2">
+        <v>36214</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F48" t="s">
+        <v>111</v>
+      </c>
+      <c r="G48" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>RajaHunter.AmelaMcfarland@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <f t="shared" si="1"/>
+        <v>19000098</v>
+      </c>
+      <c r="B49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="2">
+        <v>36175</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F49" t="s">
+        <v>110</v>
+      </c>
+      <c r="G49" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>IvorFitzgerald.DarrelWhitehead@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <f t="shared" si="1"/>
+        <v>19000099</v>
+      </c>
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="2">
+        <v>36852</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F50" t="s">
+        <v>109</v>
+      </c>
+      <c r="G50" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>TylerDillon.AxelDotson@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <f t="shared" si="1"/>
+        <v>19000100</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="2">
+        <v>36631</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F51" t="s">
+        <v>108</v>
+      </c>
+      <c r="G51" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>SylvesterFuentes.OttoDillard@etu.uae.ac.ma</v>
       </c>
     </row>
   </sheetData>
